--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-873133.5910922354</v>
+        <v>-875474.7771948834</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6650006.965761225</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14215886.62834825</v>
+        <v>14215670.78940324</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>50.47356794544385</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>59.52115405606654</v>
       </c>
       <c r="H2" t="n">
-        <v>72.67497623646574</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>84.72593637815061</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>33.74986604072824</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.2413141499397</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>318.0028282768178</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>309.5214467039066</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>67.24036028042102</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>101.780687729549</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>67.67856571896775</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>193.0552439171462</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1291,13 +1291,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>115.0492085588716</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>168.4743637384531</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9338715566937</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>293.7964484156302</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>42.04518470759555</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.4645365582629</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9711388310543</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9961436311612</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.0059677968616</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.65963851412518</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>8.915218264396643</v>
+        <v>18.81721868247749</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734071385</v>
       </c>
       <c r="S12" t="n">
-        <v>128.264216864854</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7427643629146</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7875959384519</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.9833439705325</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>5.874194355895229</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,10 +1622,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873206</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.5769297729266</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881762</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396202</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851125</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,10 +1731,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098733954333</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414548</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
         <v>190.7165703189231</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>40.49613765997267</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>146.9083821604488</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G17" t="n">
         <v>410.9217256534534</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,19 +2002,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,19 +2056,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>158.8536635793703</v>
+        <v>48.03104245322876</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>3.404778134235382</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>30.82797978766568</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,7 +2482,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>210.204854827739</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888065</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292658</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,22 +2713,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>119.7722286538888</v>
       </c>
       <c r="T28" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>266.8863138910725</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.96769364758811</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>49.00186811941023</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
@@ -3004,7 +3004,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
-        <v>101.6403363996205</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124492</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C37" t="n">
         <v>120.2716844800353</v>
@@ -3430,19 +3430,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E37" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F37" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G37" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H37" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I37" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124557</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.95701605145477</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T37" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U37" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V37" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W37" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X37" t="n">
-        <v>178.7345187704446</v>
+        <v>178.734518770444</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C40" t="n">
         <v>120.2716844800353</v>
@@ -3667,19 +3667,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797664</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433872</v>
       </c>
       <c r="G40" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572825</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145478</v>
+        <v>41.9570160514548</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T40" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U40" t="n">
         <v>239.2367015870203</v>
       </c>
       <c r="V40" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W40" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X40" t="n">
         <v>178.7345187704446</v>
       </c>
       <c r="Y40" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.3772837912455</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145474</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4153,7 +4153,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1651.354421660899</v>
+        <v>833.99383296622</v>
       </c>
       <c r="C2" t="n">
-        <v>1282.391904720488</v>
+        <v>833.99383296622</v>
       </c>
       <c r="D2" t="n">
-        <v>924.1262061137372</v>
+        <v>833.99383296622</v>
       </c>
       <c r="E2" t="n">
-        <v>538.3379535154929</v>
+        <v>448.2055803679758</v>
       </c>
       <c r="F2" t="n">
-        <v>127.3520487258854</v>
+        <v>441.2600796187723</v>
       </c>
       <c r="G2" t="n">
-        <v>127.3520487258854</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2092.477155601806</v>
+        <v>1224.133164942032</v>
       </c>
       <c r="Y2" t="n">
-        <v>1702.337823625994</v>
+        <v>833.99383296622</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.3478788207</v>
+        <v>404.8646000824888</v>
       </c>
       <c r="C4" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="D4" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="E4" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9963436509397</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9963436509397</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.9963436509397</v>
+        <v>438.9553738610022</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1036.358670716696</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>1743.361901372331</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>1357.573648774087</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>946.5877439844796</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>528.6239358826665</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2165.866498026743</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1813.097842756629</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1813.097842756629</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="Y5" t="n">
-        <v>1422.958510780817</v>
+        <v>2112.324418312743</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4653,34 +4653,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="X7" t="n">
-        <v>438.7118141694736</v>
+        <v>625.3202087220412</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.7118141694736</v>
+        <v>404.5276295785111</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.251950079336</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="C8" t="n">
-        <v>1253.251950079336</v>
+        <v>1975.417918807696</v>
       </c>
       <c r="D8" t="n">
-        <v>1253.251950079336</v>
+        <v>1617.152220200946</v>
       </c>
       <c r="E8" t="n">
-        <v>867.4636974810917</v>
+        <v>1231.363967602702</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>820.3780628130942</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>402.414254711281</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4838,16 +4838,16 @@
         <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.851790143458</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5356891811371</v>
       </c>
       <c r="C10" t="n">
-        <v>397.6292392479589</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D10" t="n">
-        <v>247.5125998356232</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
         <v>99.59950625323012</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>611.9176624297962</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>397.6292392479589</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>397.6292392479589</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X10" t="n">
-        <v>397.6292392479589</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y10" t="n">
-        <v>397.6292392479589</v>
+        <v>268.5356891811371</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2373.882098979287</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2004.919582038875</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.653883432125</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1260.86563083388</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
-        <v>849.8797260442727</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G11" t="n">
-        <v>434.7950073001376</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H11" t="n">
-        <v>138.0309179914202</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J11" t="n">
-        <v>450.8252547561874</v>
+        <v>451.8458144277726</v>
       </c>
       <c r="K11" t="n">
-        <v>1014.76974140042</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.906407169499</v>
+        <v>1557.60335981148</v>
       </c>
       <c r="M11" t="n">
-        <v>2440.345322810317</v>
+        <v>2091.135264483404</v>
       </c>
       <c r="N11" t="n">
-        <v>2984.978588227983</v>
+        <v>2637.914081542185</v>
       </c>
       <c r="O11" t="n">
-        <v>3485.925075533296</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P11" t="n">
-        <v>4197.551032872599</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q11" t="n">
-        <v>4654.730730682137</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.481483471981</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.450030107279</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4207.918571893985</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V11" t="n">
-        <v>3876.855684550414</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.0870292803</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.62127101922</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.481939043409</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960.6607132131653</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C12" t="n">
-        <v>786.2076839320383</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D12" t="n">
-        <v>637.2732742707869</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E12" t="n">
-        <v>478.0358192653314</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F12" t="n">
-        <v>331.5012612922165</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G12" t="n">
-        <v>195.1315968509426</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H12" t="n">
-        <v>104.5663054225329</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J12" t="n">
-        <v>188.6304655901491</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K12" t="n">
-        <v>425.8557720172221</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L12" t="n">
-        <v>791.1570130847063</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M12" t="n">
-        <v>1236.80319943632</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N12" t="n">
-        <v>1708.652959194794</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O12" t="n">
-        <v>2118.083510842052</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P12" t="n">
-        <v>2427.354558330745</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q12" t="n">
-        <v>2584.174866856816</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R12" t="n">
-        <v>2584.174866856816</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S12" t="n">
-        <v>2454.615051841812</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2261.945592889373</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2033.877314163664</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V12" t="n">
-        <v>1798.725205931922</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1544.48784920372</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1336.636348998187</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y12" t="n">
-        <v>1128.876050233233</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>715.35042752136</v>
+        <v>409.1008243407821</v>
       </c>
       <c r="C13" t="n">
-        <v>546.4142445934531</v>
+        <v>409.1008243407821</v>
       </c>
       <c r="D13" t="n">
-        <v>396.2976051811173</v>
+        <v>409.1008243407821</v>
       </c>
       <c r="E13" t="n">
-        <v>248.3845115987242</v>
+        <v>409.1008243407821</v>
       </c>
       <c r="F13" t="n">
-        <v>101.4945641008138</v>
+        <v>262.2108768428717</v>
       </c>
       <c r="G13" t="n">
-        <v>101.4945641008138</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H13" t="n">
-        <v>101.4945641008138</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.3023286490538</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K13" t="n">
-        <v>343.6628557168181</v>
+        <v>344.670849844206</v>
       </c>
       <c r="L13" t="n">
-        <v>659.4207503875592</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M13" t="n">
-        <v>1002.732300888672</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N13" t="n">
-        <v>1343.315286479766</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O13" t="n">
-        <v>1641.882503112266</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P13" t="n">
-        <v>1873.837653793006</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q13" t="n">
-        <v>1950.996296790519</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R13" t="n">
-        <v>1950.996296790519</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S13" t="n">
-        <v>1950.996296790519</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="T13" t="n">
-        <v>1950.996296790519</v>
+        <v>1644.746393431756</v>
       </c>
       <c r="U13" t="n">
-        <v>1661.893129737977</v>
+        <v>1355.6435265574</v>
       </c>
       <c r="V13" t="n">
-        <v>1407.20864153209</v>
+        <v>1100.959038351513</v>
       </c>
       <c r="W13" t="n">
-        <v>1117.79147149513</v>
+        <v>811.5418683145519</v>
       </c>
       <c r="X13" t="n">
-        <v>1117.79147149513</v>
+        <v>811.5418683145519</v>
       </c>
       <c r="Y13" t="n">
-        <v>896.9988923515997</v>
+        <v>590.7492891710218</v>
       </c>
     </row>
     <row r="14">
@@ -5264,40 +5264,40 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277714</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176156</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L14" t="n">
-        <v>1650.184003770968</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M14" t="n">
-        <v>2209.609207880065</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N14" t="n">
-        <v>3189.361480106709</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O14" t="n">
-        <v>3692.333950986043</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432986</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188667</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R14" t="n">
         <v>4778.051722419721</v>
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973202</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161932</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549419</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494864</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763713</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390109</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193566</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320199</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
-        <v>1241.476988454333</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008786</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.961311426838</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902939</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549538</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142068</v>
@@ -5385,7 +5385,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447819</v>
@@ -5394,7 +5394,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282342</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>747.3928343215919</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="C16" t="n">
-        <v>747.3928343215919</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="D16" t="n">
-        <v>597.2761949092561</v>
+        <v>243.4741280307875</v>
       </c>
       <c r="E16" t="n">
-        <v>597.2761949092561</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>450.3862474113457</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>282.6834107860647</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>136.4662240039224</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.6836668953295</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442049</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482926999</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M16" t="n">
-        <v>1005.387693892248</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N16" t="n">
-        <v>1346.796070598111</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.125669518524</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952182</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104696</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104696</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1956.343466104696</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104696</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.24059923034</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1667.24059923034</v>
+        <v>909.27315417834</v>
       </c>
       <c r="W16" t="n">
-        <v>1377.823429193379</v>
+        <v>619.8559841413794</v>
       </c>
       <c r="X16" t="n">
-        <v>1149.833878295362</v>
+        <v>391.8664332433621</v>
       </c>
       <c r="Y16" t="n">
-        <v>929.0412991518316</v>
+        <v>243.4741280307875</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
         <v>850.213983755162</v>
@@ -5513,46 +5513,46 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K17" t="n">
-        <v>939.1634975427194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1803.682313196074</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2782.232616025903</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N17" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R17" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
         <v>3150.95552873011</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5634,10 +5634,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>725.3071882816349</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="C19" t="n">
-        <v>556.371005353728</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="D19" t="n">
-        <v>556.371005353728</v>
+        <v>389.6913148129298</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G19" t="n">
         <v>241.7782212305366</v>
@@ -5674,49 +5674,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442099</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L19" t="n">
-        <v>661.2306482927061</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M19" t="n">
-        <v>1005.387693892255</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N19" t="n">
-        <v>1346.79607059812</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.125669518533</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P19" t="n">
-        <v>1878.733169952193</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104707</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104707</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.657581931534</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1542.89096650106</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1542.89096650106</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1288.206478295173</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1288.206478295173</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.748232255405</v>
+        <v>571.3397796431694</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.9556531118747</v>
+        <v>571.3397796431694</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E20" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H20" t="n">
         <v>137.5579332089257</v>
@@ -5765,16 +5765,16 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S20" t="n">
         <v>4667.761053946815</v>
@@ -5783,19 +5783,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>559.3002584566048</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="C22" t="n">
-        <v>390.3640755286979</v>
+        <v>414.6161344886295</v>
       </c>
       <c r="D22" t="n">
-        <v>390.3640755286979</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E22" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5932,28 +5932,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1925.204092581809</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1733.518208408635</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="T22" t="n">
-        <v>1733.518208408635</v>
+        <v>1644.746393431758</v>
       </c>
       <c r="U22" t="n">
-        <v>1444.415341534279</v>
+        <v>1355.643526557401</v>
       </c>
       <c r="V22" t="n">
-        <v>1189.730853328392</v>
+        <v>1100.959038351514</v>
       </c>
       <c r="W22" t="n">
-        <v>1189.730853328392</v>
+        <v>811.5418683145538</v>
       </c>
       <c r="X22" t="n">
-        <v>961.7413024303746</v>
+        <v>583.5523174165364</v>
       </c>
       <c r="Y22" t="n">
-        <v>740.9487232868445</v>
+        <v>583.5523174165364</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N23" t="n">
-        <v>3196.009277420603</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>637.1336314069201</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C25" t="n">
-        <v>637.1336314069201</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D25" t="n">
-        <v>487.0169919945844</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839442</v>
@@ -6169,28 +6169,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1734.57685067423</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1479.892362468343</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W25" t="n">
-        <v>1267.564226278707</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X25" t="n">
-        <v>1039.57467538069</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y25" t="n">
-        <v>818.7820962371599</v>
+        <v>245.6776738607302</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089263</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
         <v>451.8458144277729</v>
@@ -6230,46 +6230,46 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1971.087962216427</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2949.638265046256</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N26" t="n">
-        <v>3496.417082105038</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3999.389552984375</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4394.163919341553</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="27">
@@ -6279,28 +6279,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6309,7 +6309,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6321,16 +6321,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>411.3871648742117</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C28" t="n">
-        <v>242.4509819463048</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D28" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>242.4509819463048</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6406,28 +6406,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1835.361416959362</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1613.594801528888</v>
       </c>
       <c r="U28" t="n">
-        <v>1183.478374015077</v>
+        <v>1324.491934654531</v>
       </c>
       <c r="V28" t="n">
-        <v>928.7938858091898</v>
+        <v>1069.807446448644</v>
       </c>
       <c r="W28" t="n">
-        <v>639.3767157722291</v>
+        <v>780.3902764116835</v>
       </c>
       <c r="X28" t="n">
-        <v>411.3871648742117</v>
+        <v>780.3902764116835</v>
       </c>
       <c r="Y28" t="n">
-        <v>411.3871648742117</v>
+        <v>559.5976972681534</v>
       </c>
     </row>
     <row r="29">
@@ -6452,10 +6452,10 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
@@ -6516,25 +6516,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
@@ -6546,7 +6546,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6558,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6582,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>410.7144041584436</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C31" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D31" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E31" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F31" t="n">
-        <v>241.7782212305366</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G31" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1906.846629620451</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1715.160745447277</v>
       </c>
       <c r="T31" t="n">
-        <v>1453.060509258584</v>
+        <v>1493.394130016804</v>
       </c>
       <c r="U31" t="n">
-        <v>1453.060509258584</v>
+        <v>1204.291263142447</v>
       </c>
       <c r="V31" t="n">
-        <v>1198.376021052697</v>
+        <v>949.6067749365602</v>
       </c>
       <c r="W31" t="n">
-        <v>908.9588510157366</v>
+        <v>660.1896048995997</v>
       </c>
       <c r="X31" t="n">
-        <v>680.9693001177193</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="Y31" t="n">
-        <v>460.1767209741892</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="32">
@@ -6780,10 +6780,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>788.5151678215061</v>
+        <v>788.515167821505</v>
       </c>
       <c r="C34" t="n">
-        <v>667.0286178416725</v>
+        <v>667.0286178416713</v>
       </c>
       <c r="D34" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774088</v>
       </c>
       <c r="E34" t="n">
-        <v>463.8981507430895</v>
+        <v>463.898150743089</v>
       </c>
       <c r="F34" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932519</v>
       </c>
       <c r="G34" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160441</v>
       </c>
       <c r="H34" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819752</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839442</v>
@@ -6862,7 +6862,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L34" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M34" t="n">
         <v>1191.409234901878</v>
@@ -6877,13 +6877,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q34" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R34" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S34" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T34" t="n">
         <v>1967.452490122057</v>
@@ -6892,16 +6892,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V34" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W34" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X34" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y34" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6941,22 +6941,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,64 +6990,64 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K36" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.200663232024</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C37" t="n">
-        <v>667.0286178416723</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D37" t="n">
-        <v>564.3616113774099</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E37" t="n">
-        <v>463.89815074309</v>
+        <v>463.8981507430897</v>
       </c>
       <c r="F37" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G37" t="n">
         <v>244.2046325160447</v>
@@ -7093,13 +7093,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K37" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L37" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M37" t="n">
         <v>1191.409234901878</v>
@@ -7114,13 +7114,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q37" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R37" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S37" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T37" t="n">
         <v>1967.452490122057</v>
@@ -7132,13 +7132,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W37" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X37" t="n">
         <v>1096.056945899129</v>
       </c>
       <c r="Y37" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C38" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D38" t="n">
         <v>1646.988141143014</v>
@@ -7178,22 +7178,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1586.925993846824</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2120.457898518748</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>2667.236715577531</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>3547.201365906985</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,25 +7227,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215057</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416716</v>
+        <v>667.028617841672</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774095</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430896</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932525</v>
       </c>
       <c r="G40" t="n">
         <v>244.2046325160447</v>
@@ -7330,13 +7330,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490195</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7369,13 +7369,13 @@
         <v>1518.56440093796</v>
       </c>
       <c r="W40" t="n">
-        <v>1276.596863849072</v>
+        <v>1276.596863849073</v>
       </c>
       <c r="X40" t="n">
-        <v>1096.056945899128</v>
+        <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036716</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7412,19 +7412,19 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1339.447785386687</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F43" t="n">
         <v>364.4578361932524</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7573,7 +7573,7 @@
         <v>437.6816203490197</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7597,22 +7597,22 @@
         <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
-        <v>1967.452490122057</v>
+        <v>1967.452490122056</v>
       </c>
       <c r="U43" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V43" t="n">
         <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,37 +7637,37 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H44" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I44" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807097</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7701,43 +7701,43 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K45" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
         <v>2125.96131142685</v>
@@ -7746,7 +7746,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R45" t="n">
         <v>2593.958107142068</v>
@@ -7755,7 +7755,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U45" t="n">
         <v>2043.809373447819</v>
@@ -7764,7 +7764,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W45" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X45" t="n">
         <v>1346.568408282342</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8301,7 +8301,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,19 +8690,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>233.9946134841309</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476885</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.5463950602909335</v>
+        <v>2.823991041012164e-12</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,25 +8927,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>26.15484791633958</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P14" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>1.498393076282412e-11</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>246.454569480845</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9413,13 +9413,13 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>176.2173930448432</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,22 +9878,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>11.64153443578837</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10589,7 +10589,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>29.61882225792135</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10598,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>29.61882225792135</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10835,7 +10835,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>103.7862464855143</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476838</v>
+        <v>133.2530576400235</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,10 +22559,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>251.2477965278914</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>285.0051643003184</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9357052032494266</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0312564930842</v>
+        <v>1.042464288495722</v>
       </c>
       <c r="H13" t="n">
-        <v>144.803454668018</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>90.6420693108246</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.17712508496179</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.8639731922165</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5722280944081</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>55.85628274986566</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004769</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.769025331442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>71.67627119164604</v>
       </c>
     </row>
     <row r="17">
@@ -23890,19 +23890,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23944,19 +23944,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>66.85599180966682</v>
+        <v>177.6786129358084</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>145.210694883977</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>58.10417288238165</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,13 +24187,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24370,7 +24370,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24409,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>76.31814350885196</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>73.85778156328831</v>
       </c>
     </row>
     <row r="26">
@@ -24601,22 +24601,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>69.99679667755311</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>19.32552431454042</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>130.8642865343492</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24850,10 +24850,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>39.9302845506371</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>6.465938895416912e-13</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>6.536993168992922e-13</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1196447.385667021</v>
+        <v>1196124.165160857</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1208480.149398046</v>
+        <v>1208600.93905046</v>
       </c>
     </row>
     <row r="6">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>192026.3063317519</v>
+        <v>191972.4362473912</v>
       </c>
       <c r="C2" t="n">
         <v>205260.4424660708</v>
@@ -26320,7 +26320,7 @@
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
-        <v>198487.023359131</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="F2" t="n">
         <v>198540.8934434915</v>
@@ -26335,7 +26335,7 @@
         <v>198540.8934434915</v>
       </c>
       <c r="J2" t="n">
-        <v>198540.8934434916</v>
+        <v>198540.8934434915</v>
       </c>
       <c r="K2" t="n">
         <v>198540.8934434915</v>
@@ -26344,16 +26344,16 @@
         <v>205260.4424660705</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="N2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="P2" t="n">
-        <v>205260.4424660707</v>
+        <v>205260.4424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>724950.097787052</v>
+        <v>727377.4139934061</v>
       </c>
       <c r="F3" t="n">
-        <v>2388.166286072369</v>
+        <v>5.391791546571767e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>3.358821459187311e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487406</v>
+        <v>37580.10929487403</v>
       </c>
       <c r="M3" t="n">
         <v>129642.3148389448</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153134.2501409024</v>
+        <v>153011.2610588577</v>
       </c>
       <c r="C4" t="n">
         <v>183348.686857128</v>
@@ -26424,40 +26424,40 @@
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>18350.09095773399</v>
+        <v>18148.49231919</v>
       </c>
       <c r="F4" t="n">
-        <v>18148.49231919022</v>
+        <v>18148.49231918995</v>
       </c>
       <c r="G4" t="n">
+        <v>18148.49231918989</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
       <c r="J4" t="n">
-        <v>18148.49231918991</v>
+        <v>18148.49231918992</v>
       </c>
       <c r="K4" t="n">
         <v>18148.49231918994</v>
       </c>
       <c r="L4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740898</v>
       </c>
       <c r="M4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740896</v>
       </c>
       <c r="N4" t="n">
         <v>33605.65329740896</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740896</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740897</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26476,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96317.65405691761</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371356</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371366</v>
@@ -26491,7 +26491,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-633934.9010871046</v>
+        <v>-633998.662151607</v>
       </c>
       <c r="C6" t="n">
-        <v>-60947.32245446666</v>
+        <v>-60947.32245446669</v>
       </c>
       <c r="D6" t="n">
-        <v>-60947.3224544666</v>
+        <v>-60947.32245446663</v>
       </c>
       <c r="E6" t="n">
-        <v>-641130.8194425728</v>
+        <v>-643435.7266130439</v>
       </c>
       <c r="F6" t="n">
-        <v>81620.71658451535</v>
+        <v>83941.68738036162</v>
       </c>
       <c r="G6" t="n">
-        <v>84008.88287058457</v>
+        <v>83941.68738036221</v>
       </c>
       <c r="H6" t="n">
-        <v>84008.88287058791</v>
+        <v>83941.6873803621</v>
       </c>
       <c r="I6" t="n">
-        <v>84008.88287058791</v>
+        <v>83941.68738036213</v>
       </c>
       <c r="J6" t="n">
-        <v>-92414.33632200488</v>
+        <v>-92481.53181223072</v>
       </c>
       <c r="K6" t="n">
-        <v>84008.88287058794</v>
+        <v>83941.68738036213</v>
       </c>
       <c r="L6" t="n">
-        <v>33742.00885968527</v>
+        <v>33742.00885968536</v>
       </c>
       <c r="M6" t="n">
-        <v>-58320.19668438516</v>
+        <v>-58320.19668438498</v>
       </c>
       <c r="N6" t="n">
-        <v>71322.11815455963</v>
+        <v>71322.11815455975</v>
       </c>
       <c r="O6" t="n">
-        <v>71322.11815455975</v>
+        <v>71322.11815455969</v>
       </c>
       <c r="P6" t="n">
-        <v>71322.1181545596</v>
+        <v>71322.11815455969</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46.97513661859254</v>
+      </c>
+      <c r="O2" t="n">
+        <v>46.97513661859259</v>
+      </c>
+      <c r="P2" t="n">
         <v>46.97513661859256</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859255</v>
-      </c>
-      <c r="O2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,10 +26744,10 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1086.755407162287</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593294</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26777,7 +26777,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>709.0117429452004</v>
+        <v>712.0330363762108</v>
       </c>
       <c r="F3" t="n">
-        <v>3.021293431007052</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>4.320099833421409e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>332.2602737180367</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>354.2630159647284</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,16 +27430,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>146.082114141209</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2816841866512618</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>5.919944487539397</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>18.23081176622827</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.5916199015163</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27831,16 +27831,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>150.356955594279</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>339.1974800227437</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>130.867528847211</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,13 +27910,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28011,13 +28011,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28056,10 +28056,10 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>31.61598342128626</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28071,13 +28071,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>50.11028961364164</v>
       </c>
     </row>
     <row r="11">
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28746,7 +28746,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.534950110406498e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29293,7 +29293,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-6.323830348264892e-13</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="38">
@@ -30220,13 +30220,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.368865958441351</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H11" t="n">
-        <v>44.7426484968875</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I11" t="n">
-        <v>168.4307048628104</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J11" t="n">
-        <v>370.802037140262</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K11" t="n">
-        <v>555.7361331610845</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L11" t="n">
-        <v>689.4398147367341</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M11" t="n">
-        <v>767.1346347251655</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N11" t="n">
-        <v>779.547675129587</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O11" t="n">
-        <v>736.1047642553358</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P11" t="n">
-        <v>628.2483859063149</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q11" t="n">
-        <v>471.7883737696338</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R11" t="n">
-        <v>274.4357762619418</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S11" t="n">
-        <v>99.55553302798239</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T11" t="n">
-        <v>19.12471073307702</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U11" t="n">
-        <v>0.349509276675308</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.33754936634907</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H12" t="n">
-        <v>22.57580572237129</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I12" t="n">
-        <v>80.48141458701843</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J12" t="n">
-        <v>220.8471530724795</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K12" t="n">
-        <v>377.4629606178672</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L12" t="n">
-        <v>507.5455323732926</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M12" t="n">
-        <v>592.2816969034463</v>
+        <v>593.9283018233471</v>
       </c>
       <c r="N12" t="n">
-        <v>607.9576310312873</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O12" t="n">
-        <v>556.1624582295526</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P12" t="n">
-        <v>446.3694048776571</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.3861261325585</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R12" t="n">
-        <v>145.133108903673</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S12" t="n">
-        <v>43.41895423898379</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T12" t="n">
-        <v>9.421964331906993</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1537861425229652</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.959722865374615</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H13" t="n">
-        <v>17.4237178394216</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I13" t="n">
-        <v>58.93421126053845</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J13" t="n">
-        <v>138.5524065819853</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>227.6841656317053</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L13" t="n">
-        <v>291.3573430939679</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M13" t="n">
-        <v>307.1954669786772</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N13" t="n">
-        <v>299.8910453895539</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O13" t="n">
-        <v>276.9979191894957</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P13" t="n">
-        <v>237.0195727358534</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.1000664815053</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R13" t="n">
-        <v>88.1162662922077</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S13" t="n">
-        <v>34.15262484475579</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T13" t="n">
-        <v>8.373361333873355</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1068939744749792</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.38101186168158</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.8670377284465</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.8989597974793</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953974</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003788</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623166</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574964</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990094993</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.151212309903</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746389</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781671</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563558</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806911</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
-        <v>19.17787942451113</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345264</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502557</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798522</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752225</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026429</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353142</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138776</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233451</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.64781668379</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970228</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002909</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987475</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905535</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238299</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.44815837589846</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462209</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.96517109943053</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311872</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451741995</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297385</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702015</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.1673469098808</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316421</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883103</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.768002308599</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.678511880216</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.5562817895874</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.3612387071218</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553022</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112262</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.107191150878029</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
@@ -33515,7 +33515,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
         <v>299.2156706987487</v>
@@ -33740,7 +33740,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
         <v>593.9283018233475</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.708647897025</v>
@@ -34226,10 +34226,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34366,40 +34366,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,46 +34436,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34518,43 +34518,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35021,19 +35021,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>358.8527477856495</v>
+        <v>359.883616140786</v>
       </c>
       <c r="K11" t="n">
-        <v>569.6408956002348</v>
+        <v>661.3366991265648</v>
       </c>
       <c r="L11" t="n">
-        <v>453.6733997667469</v>
+        <v>455.5901143923315</v>
       </c>
       <c r="M11" t="n">
-        <v>986.3019349907253</v>
+        <v>538.9211158302261</v>
       </c>
       <c r="N11" t="n">
-        <v>550.1346115329961</v>
+        <v>552.3018354129108</v>
       </c>
       <c r="O11" t="n">
-        <v>506.006552833649</v>
+        <v>852.755584535907</v>
       </c>
       <c r="P11" t="n">
-        <v>718.814098322528</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q11" t="n">
-        <v>461.797674555089</v>
+        <v>463.1092954636238</v>
       </c>
       <c r="R11" t="n">
-        <v>124.5666583207921</v>
+        <v>125.329618415207</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.00952640581281</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K12" t="n">
-        <v>239.6215216435082</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L12" t="n">
-        <v>368.9911525934185</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M12" t="n">
-        <v>450.147662981428</v>
+        <v>451.7942679013287</v>
       </c>
       <c r="N12" t="n">
-        <v>476.615918947954</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O12" t="n">
-        <v>413.5662137851082</v>
+        <v>415.1124034525801</v>
       </c>
       <c r="P12" t="n">
-        <v>312.3949974633269</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q12" t="n">
-        <v>158.404352046537</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19322646531253</v>
+        <v>45.57841661306611</v>
       </c>
       <c r="K13" t="n">
-        <v>205.4146738058224</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L13" t="n">
-        <v>318.947368354284</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M13" t="n">
-        <v>346.7793439405178</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N13" t="n">
-        <v>344.0232177687825</v>
+        <v>344.8569461675398</v>
       </c>
       <c r="O13" t="n">
-        <v>301.5830471035354</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P13" t="n">
-        <v>234.2981320007469</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.93802322981092</v>
+        <v>78.39423853789351</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407849</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865553982</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427798</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>565.0759637465633</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248925</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882163</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P14" t="n">
-        <v>720.5606943908519</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037176</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152061</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597622</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609552</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340034</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013268</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004567</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525784</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859607</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612726</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306568</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443187</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
-        <v>319.757372170197</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934826</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675389</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226387</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451095</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.394238537893</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>798.7564048937564</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443231</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36133,13 +36133,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>427.0116978485627</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36598,22 +36598,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>897.0044190605943</v>
       </c>
       <c r="O26" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>262.4358392395079</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
@@ -37163,7 +37163,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
         <v>159.2338966127272</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37309,7 +37309,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L35" t="n">
-        <v>485.2089366502535</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M35" t="n">
         <v>538.9211158302268</v>
@@ -37318,7 +37318,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
@@ -37327,7 +37327,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,7 +37388,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M36" t="n">
         <v>451.7942679013292</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
         <v>253.0227961629121</v>
@@ -37473,7 +37473,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N37" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O37" t="n">
         <v>349.3282668412323</v>
@@ -37546,7 +37546,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>485.2089366502535</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
         <v>538.9211158302268</v>
@@ -37555,7 +37555,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
         <v>720.5606943908545</v>
@@ -37564,7 +37564,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525806</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37710,7 +37710,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
@@ -37780,22 +37780,22 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>559.3763608778464</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q41" t="n">
         <v>463.1092954636242</v>
@@ -37874,10 +37874,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230594</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O44" t="n">
-        <v>852.7555845359029</v>
+        <v>641.3060585282428</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
         <v>159.2338966127272</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,10 +38184,10 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P46" t="n">
         <v>281.932207763703</v>
